--- a/DR_Direction/MG_Management/LI_Liste présence/Présence.xlsx
+++ b/DR_Direction/MG_Management/LI_Liste présence/Présence.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thilv\Desktop\EPSA\Ressources2020\DR_Direction\MG_Management\LI_Liste présence\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3878039-E74E-435D-AF08-D2B891CB48F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78139C22-3595-4EC6-8B01-C43E8A981DA6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,17 +18,23 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$B$24:$B$65</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="115">
   <si>
     <t>2As</t>
   </si>
@@ -367,6 +373,9 @@
   </si>
   <si>
     <t>Artisalab</t>
+  </si>
+  <si>
+    <t>Skype M. Zeller</t>
   </si>
   <si>
     <t>Ok</t>
@@ -510,14 +519,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <fill>
         <patternFill>
@@ -526,80 +528,9 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
+          <bgColor theme="7" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -895,10 +826,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C65"/>
+  <dimension ref="A1:D65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L44" sqref="L44"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -925,7 +856,7 @@
         <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -943,6 +874,9 @@
       <c r="B4" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="C4" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
@@ -951,6 +885,9 @@
       <c r="B5" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="C5" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
@@ -959,6 +896,9 @@
       <c r="B6" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="C6" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
@@ -975,6 +915,9 @@
       <c r="B8" s="1" t="s">
         <v>52</v>
       </c>
+      <c r="C8" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
@@ -983,6 +926,9 @@
       <c r="B9" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="C9" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
@@ -991,6 +937,9 @@
       <c r="B10" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="C10" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
@@ -999,6 +948,9 @@
       <c r="B11" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C11" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
@@ -1023,6 +975,9 @@
       <c r="B14" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="C14" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
@@ -1031,6 +986,9 @@
       <c r="B15" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="C15" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
@@ -1040,7 +998,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>105</v>
       </c>
@@ -1048,15 +1006,18 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>106</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>82</v>
       </c>
@@ -1064,67 +1025,85 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>107</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>50</v>
       </c>
       <c r="B23" s="5"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>54</v>
       </c>
       <c r="B24" s="7"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>62</v>
       </c>
       <c r="B25" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>63</v>
       </c>
       <c r="B26" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>60</v>
       </c>
       <c r="B27" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>65</v>
       </c>
@@ -1132,30 +1111,36 @@
         <v>64</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>61</v>
       </c>
       <c r="B29" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30"/>
       <c r="B30"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
         <v>55</v>
       </c>
       <c r="B31" s="8"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>66</v>
       </c>
       <c r="B32" t="s">
         <v>25</v>
+      </c>
+      <c r="C32" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -1173,6 +1158,9 @@
       <c r="B34" t="s">
         <v>49</v>
       </c>
+      <c r="C34" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
@@ -1181,6 +1169,9 @@
       <c r="B35" t="s">
         <v>72</v>
       </c>
+      <c r="C35" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
@@ -1189,6 +1180,9 @@
       <c r="B36" t="s">
         <v>36</v>
       </c>
+      <c r="C36" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
@@ -1205,6 +1199,9 @@
       <c r="B38" t="s">
         <v>37</v>
       </c>
+      <c r="C38" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39"/>
@@ -1223,6 +1220,9 @@
       <c r="B41" t="s">
         <v>79</v>
       </c>
+      <c r="C41" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
@@ -1242,6 +1242,9 @@
       <c r="B43" t="s">
         <v>38</v>
       </c>
+      <c r="C43" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
@@ -1250,6 +1253,9 @@
       <c r="B44" t="s">
         <v>47</v>
       </c>
+      <c r="C44" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
@@ -1258,6 +1264,9 @@
       <c r="B45" t="s">
         <v>48</v>
       </c>
+      <c r="C45" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
@@ -1280,7 +1289,7 @@
       </c>
       <c r="B48" s="10"/>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>32</v>
       </c>
@@ -1291,7 +1300,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>44</v>
       </c>
@@ -1302,7 +1311,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>84</v>
       </c>
@@ -1313,7 +1322,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>93</v>
       </c>
@@ -1321,7 +1330,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>83</v>
       </c>
@@ -1332,59 +1341,77 @@
         <v>110</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54"/>
       <c r="B54"/>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>58</v>
       </c>
       <c r="B55" s="4"/>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>86</v>
       </c>
       <c r="B56" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C56" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>85</v>
       </c>
       <c r="B57" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C57" t="s">
+        <v>114</v>
+      </c>
+      <c r="D57" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>87</v>
       </c>
       <c r="B58" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C58" t="s">
+        <v>114</v>
+      </c>
+      <c r="D58" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>34</v>
       </c>
       <c r="B59" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C59" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60"/>
       <c r="B60"/>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
         <v>59</v>
       </c>
       <c r="B61" s="4"/>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>89</v>
       </c>
@@ -1392,7 +1419,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>90</v>
       </c>
@@ -1400,7 +1427,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>91</v>
       </c>
@@ -1408,12 +1435,15 @@
         <v>28</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>30</v>
       </c>
       <c r="B65" t="s">
         <v>31</v>
+      </c>
+      <c r="C65" t="s">
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -1430,15 +1460,15 @@
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="A48:B48"/>
   </mergeCells>
-  <conditionalFormatting sqref="C2:C53">
+  <conditionalFormatting sqref="C2:C22 C41:C46 C62:C65 C56:C59 C49:C53 C32:C38 C25:C29">
     <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="Ok">
       <formula>NOT(ISERROR(SEARCH("Ok",C2)))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="1" priority="3">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+      <formula>LEN(TRIM(C2))&gt;0</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="0" priority="3">
       <formula>LEN(TRIM(C2))=0</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="0" priority="2">
-      <formula>LEN(TRIM(C2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
